--- a/dtpu_configurations/only_integer32/80mhz/mxu_4x4/power.xlsx
+++ b/dtpu_configurations/only_integer32/80mhz/mxu_4x4/power.xlsx
@@ -47,7 +47,7 @@
     <t>Total Power</t>
   </si>
   <si>
-    <t>impl_1, impl_1_route_report_power_0</t>
+    <t>retiming, retiming_route_report_power_0</t>
   </si>
 </sst>
 </file>
@@ -122,12 +122,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.71875" customWidth="true"/>
+    <col min="1" max="1" width="45.46875" customWidth="true"/>
     <col min="2" max="2" width="9.0625" customWidth="true"/>
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
     <col min="7" max="7" width="8.75" customWidth="true"/>
     <col min="8" max="8" width="8.75" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.026066379621624947</v>
+        <v>0.036187682300806046</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.014921899884939194</v>
+        <v>0.013008332811295986</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.010260794311761856</v>
+        <v>0.010217397473752499</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.00648227846249938</v>
+        <v>0.0071235764771699905</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.3018439605948515E-5</v>
+        <v>0.0010506086982786655</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0016959058120846748</v>
@@ -199,10 +199,10 @@
         <v>1.2604483366012573</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12651583552360535</v>
+        <v>0.12762348353862762</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4479169845581055</v>
+        <v>1.4588578939437866</v>
       </c>
     </row>
   </sheetData>
